--- a/natmiOut/OldD2/LR-pairs_lrc2p/Pdgfc-Pdgfra.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Pdgfc-Pdgfra.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -85,6 +88,9 @@
     <t>M2</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -92,12 +98,6 @@
   </si>
   <si>
     <t>Pdgfra</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>2.82251090663888</v>
+        <v>0.1669295</v>
       </c>
       <c r="H2">
-        <v>2.82251090663888</v>
+        <v>0.333859</v>
       </c>
       <c r="I2">
-        <v>0.1649519591337076</v>
+        <v>0.006785982139841532</v>
       </c>
       <c r="J2">
-        <v>0.1649519591337076</v>
+        <v>0.005473782762969397</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.50091655847057</v>
+        <v>0.5025675000000001</v>
       </c>
       <c r="N2">
-        <v>0.50091655847057</v>
+        <v>1.005135</v>
       </c>
       <c r="O2">
-        <v>0.002911497918145221</v>
+        <v>0.002717219326525538</v>
       </c>
       <c r="P2">
-        <v>0.002911497918145221</v>
+        <v>0.001814075008651434</v>
       </c>
       <c r="Q2">
-        <v>1.413842449599196</v>
+        <v>0.08389334149125001</v>
       </c>
       <c r="R2">
-        <v>1.413842449599196</v>
+        <v>0.335573365965</v>
       </c>
       <c r="S2">
-        <v>0.0004802572856117651</v>
+        <v>1.843900181983454E-05</v>
       </c>
       <c r="T2">
-        <v>0.0004802572856117651</v>
+        <v>9.929852513089781E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>2.82251090663888</v>
+        <v>0.1669295</v>
       </c>
       <c r="H3">
-        <v>2.82251090663888</v>
+        <v>0.333859</v>
       </c>
       <c r="I3">
-        <v>0.1649519591337076</v>
+        <v>0.006785982139841532</v>
       </c>
       <c r="J3">
-        <v>0.1649519591337076</v>
+        <v>0.005473782762969397</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>170.507715292399</v>
+        <v>182.713089</v>
       </c>
       <c r="N3">
-        <v>170.507715292399</v>
+        <v>548.139267</v>
       </c>
       <c r="O3">
-        <v>0.9910490074779278</v>
+        <v>0.9878703589865653</v>
       </c>
       <c r="P3">
-        <v>0.9910490074779278</v>
+        <v>0.9892857631315353</v>
       </c>
       <c r="Q3">
-        <v>481.2598860788731</v>
+        <v>30.5002045902255</v>
       </c>
       <c r="R3">
-        <v>481.2598860788731</v>
+        <v>183.001227541353</v>
       </c>
       <c r="S3">
-        <v>0.1634754753810006</v>
+        <v>0.006703670612561674</v>
       </c>
       <c r="T3">
-        <v>0.1634754753810006</v>
+        <v>0.005415135357880423</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>2.82251090663888</v>
+        <v>0.1669295</v>
       </c>
       <c r="H4">
-        <v>2.82251090663888</v>
+        <v>0.333859</v>
       </c>
       <c r="I4">
-        <v>0.1649519591337076</v>
+        <v>0.006785982139841532</v>
       </c>
       <c r="J4">
-        <v>0.1649519591337076</v>
+        <v>0.005473782762969397</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.882876332033295</v>
+        <v>0.1515973333333333</v>
       </c>
       <c r="N4">
-        <v>0.882876332033295</v>
+        <v>0.454792</v>
       </c>
       <c r="O4">
-        <v>0.005131578422049008</v>
+        <v>0.000819637569049068</v>
       </c>
       <c r="P4">
-        <v>0.005131578422049008</v>
+        <v>0.0008208119320634572</v>
       </c>
       <c r="Q4">
-        <v>2.491928076377304</v>
+        <v>0.02530606705466667</v>
       </c>
       <c r="R4">
-        <v>2.491928076377304</v>
+        <v>0.151836402328</v>
       </c>
       <c r="S4">
-        <v>0.0008464639141652435</v>
+        <v>5.562045904710106E-06</v>
       </c>
       <c r="T4">
-        <v>0.0008464639141652435</v>
+        <v>4.49294620536856E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,123 +714,123 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>2.82251090663888</v>
+        <v>0.1669295</v>
       </c>
       <c r="H5">
-        <v>2.82251090663888</v>
+        <v>0.333859</v>
       </c>
       <c r="I5">
-        <v>0.1649519591337076</v>
+        <v>0.006785982139841532</v>
       </c>
       <c r="J5">
-        <v>0.1649519591337076</v>
+        <v>0.005473782762969397</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.156204902765566</v>
+        <v>1.297988666666667</v>
       </c>
       <c r="N5">
-        <v>0.156204902765566</v>
+        <v>3.893966</v>
       </c>
       <c r="O5">
-        <v>0.0009079161818779087</v>
+        <v>0.007017803361096332</v>
       </c>
       <c r="P5">
-        <v>0.0009079161818779087</v>
+        <v>0.007027858352498311</v>
       </c>
       <c r="Q5">
-        <v>0.4408900417262758</v>
+        <v>0.2166725991323334</v>
       </c>
       <c r="R5">
-        <v>0.4408900417262758</v>
+        <v>1.300035594794</v>
       </c>
       <c r="S5">
-        <v>0.0001497625529299566</v>
+        <v>4.762268826931958E-05</v>
       </c>
       <c r="T5">
-        <v>0.0001497625529299566</v>
+        <v>3.846896991049576E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>25</v>
       </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>2.23144062057067</v>
+        <v>0.1669295</v>
       </c>
       <c r="H6">
-        <v>2.23144062057067</v>
+        <v>0.333859</v>
       </c>
       <c r="I6">
-        <v>0.1304088856443032</v>
+        <v>0.006785982139841532</v>
       </c>
       <c r="J6">
-        <v>0.1304088856443032</v>
+        <v>0.005473782762969397</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.50091655847057</v>
+        <v>0.291303</v>
       </c>
       <c r="N6">
-        <v>0.50091655847057</v>
+        <v>0.582606</v>
       </c>
       <c r="O6">
-        <v>0.002911497918145221</v>
+        <v>0.001574980756763756</v>
       </c>
       <c r="P6">
-        <v>0.002911497918145221</v>
+        <v>0.001051491575251461</v>
       </c>
       <c r="Q6">
-        <v>1.117765556087693</v>
+        <v>0.0486270641385</v>
       </c>
       <c r="R6">
-        <v>1.117765556087693</v>
+        <v>0.194508256554</v>
       </c>
       <c r="S6">
-        <v>0.0003796851990610269</v>
+        <v>1.068779128599294E-05</v>
       </c>
       <c r="T6">
-        <v>0.0003796851990610269</v>
+        <v>5.755636460018986E-06</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.23144062057067</v>
+        <v>2.897122</v>
       </c>
       <c r="H7">
-        <v>2.23144062057067</v>
+        <v>8.691366</v>
       </c>
       <c r="I7">
-        <v>0.1304088856443032</v>
+        <v>0.1177731805878648</v>
       </c>
       <c r="J7">
-        <v>0.1304088856443032</v>
+        <v>0.1424992269115353</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>170.507715292399</v>
+        <v>0.5025675000000001</v>
       </c>
       <c r="N7">
-        <v>170.507715292399</v>
+        <v>1.005135</v>
       </c>
       <c r="O7">
-        <v>0.9910490074779278</v>
+        <v>0.002717219326525538</v>
       </c>
       <c r="P7">
-        <v>0.9910490074779278</v>
+        <v>0.001814075008651434</v>
       </c>
       <c r="Q7">
-        <v>380.477842024158</v>
+        <v>1.455999360735</v>
       </c>
       <c r="R7">
-        <v>380.477842024158</v>
+        <v>8.735996164410002</v>
       </c>
       <c r="S7">
-        <v>0.1292415966840892</v>
+        <v>0.0003200155624397286</v>
       </c>
       <c r="T7">
-        <v>0.1292415966840892</v>
+        <v>0.0002585042862923661</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.23144062057067</v>
+        <v>2.897122</v>
       </c>
       <c r="H8">
-        <v>2.23144062057067</v>
+        <v>8.691366</v>
       </c>
       <c r="I8">
-        <v>0.1304088856443032</v>
+        <v>0.1177731805878648</v>
       </c>
       <c r="J8">
-        <v>0.1304088856443032</v>
+        <v>0.1424992269115353</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.882876332033295</v>
+        <v>182.713089</v>
       </c>
       <c r="N8">
-        <v>0.882876332033295</v>
+        <v>548.139267</v>
       </c>
       <c r="O8">
-        <v>0.005131578422049008</v>
+        <v>0.9878703589865653</v>
       </c>
       <c r="P8">
-        <v>0.005131578422049008</v>
+        <v>0.9892857631315353</v>
       </c>
       <c r="Q8">
-        <v>1.970086110239533</v>
+        <v>529.342109829858</v>
       </c>
       <c r="R8">
-        <v>1.970086110239533</v>
+        <v>4764.078988468722</v>
       </c>
       <c r="S8">
-        <v>0.0006692034236157627</v>
+        <v>0.1163446341863236</v>
       </c>
       <c r="T8">
-        <v>0.0006692034236157627</v>
+        <v>0.140972456440832</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,185 +962,185 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.23144062057067</v>
+        <v>2.897122</v>
       </c>
       <c r="H9">
-        <v>2.23144062057067</v>
+        <v>8.691366</v>
       </c>
       <c r="I9">
-        <v>0.1304088856443032</v>
+        <v>0.1177731805878648</v>
       </c>
       <c r="J9">
-        <v>0.1304088856443032</v>
+        <v>0.1424992269115353</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.156204902765566</v>
+        <v>0.1515973333333333</v>
       </c>
       <c r="N9">
-        <v>0.156204902765566</v>
+        <v>0.454792</v>
       </c>
       <c r="O9">
-        <v>0.0009079161818779087</v>
+        <v>0.000819637569049068</v>
       </c>
       <c r="P9">
-        <v>0.0009079161818779087</v>
+        <v>0.0008208119320634572</v>
       </c>
       <c r="Q9">
-        <v>0.3485619651633758</v>
+        <v>0.4391959695413333</v>
       </c>
       <c r="R9">
-        <v>0.3485619651633758</v>
+        <v>3.952763725872</v>
       </c>
       <c r="S9">
-        <v>0.0001184003375371286</v>
+        <v>9.653132343621439E-05</v>
       </c>
       <c r="T9">
-        <v>0.0001184003375371286</v>
+        <v>0.0001169650657588063</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.90297587478183</v>
+        <v>2.897122</v>
       </c>
       <c r="H10">
-        <v>4.90297587478183</v>
+        <v>8.691366</v>
       </c>
       <c r="I10">
-        <v>0.2865375911314559</v>
+        <v>0.1177731805878648</v>
       </c>
       <c r="J10">
-        <v>0.2865375911314559</v>
+        <v>0.1424992269115353</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.50091655847057</v>
+        <v>1.297988666666667</v>
       </c>
       <c r="N10">
-        <v>0.50091655847057</v>
+        <v>3.893966</v>
       </c>
       <c r="O10">
-        <v>0.002911497918145221</v>
+        <v>0.007017803361096332</v>
       </c>
       <c r="P10">
-        <v>0.002911497918145221</v>
+        <v>0.007027858352498311</v>
       </c>
       <c r="Q10">
-        <v>2.455981801459947</v>
+        <v>3.760431521950667</v>
       </c>
       <c r="R10">
-        <v>2.455981801459947</v>
+        <v>33.843883697556</v>
       </c>
       <c r="S10">
-        <v>0.0008342536000495805</v>
+        <v>0.0008265090225765229</v>
       </c>
       <c r="T10">
-        <v>0.0008342536000495805</v>
+        <v>0.001001464382074786</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>25</v>
       </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.90297587478183</v>
+        <v>2.897122</v>
       </c>
       <c r="H11">
-        <v>4.90297587478183</v>
+        <v>8.691366</v>
       </c>
       <c r="I11">
-        <v>0.2865375911314559</v>
+        <v>0.1177731805878648</v>
       </c>
       <c r="J11">
-        <v>0.2865375911314559</v>
+        <v>0.1424992269115353</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>170.507715292399</v>
+        <v>0.291303</v>
       </c>
       <c r="N11">
-        <v>170.507715292399</v>
+        <v>0.582606</v>
       </c>
       <c r="O11">
-        <v>0.9910490074779278</v>
+        <v>0.001574980756763756</v>
       </c>
       <c r="P11">
-        <v>0.9910490074779278</v>
+        <v>0.001051491575251461</v>
       </c>
       <c r="Q11">
-        <v>835.9952145428012</v>
+        <v>0.8439403299659999</v>
       </c>
       <c r="R11">
-        <v>835.9952145428012</v>
+        <v>5.063641979796</v>
       </c>
       <c r="S11">
-        <v>0.2839727952959457</v>
+        <v>0.0001854904930887498</v>
       </c>
       <c r="T11">
-        <v>0.2839727952959457</v>
+        <v>0.0001498367365773256</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.90297587478183</v>
+        <v>3.476950666666667</v>
       </c>
       <c r="H12">
-        <v>4.90297587478183</v>
+        <v>10.430852</v>
       </c>
       <c r="I12">
-        <v>0.2865375911314559</v>
+        <v>0.1413442508670433</v>
       </c>
       <c r="J12">
-        <v>0.2865375911314559</v>
+        <v>0.1710189567472641</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.882876332033295</v>
+        <v>0.5025675000000001</v>
       </c>
       <c r="N12">
-        <v>0.882876332033295</v>
+        <v>1.005135</v>
       </c>
       <c r="O12">
-        <v>0.005131578422049008</v>
+        <v>0.002717219326525538</v>
       </c>
       <c r="P12">
-        <v>0.005131578422049008</v>
+        <v>0.001814075008651434</v>
       </c>
       <c r="Q12">
-        <v>4.328721356375118</v>
+        <v>1.74740240417</v>
       </c>
       <c r="R12">
-        <v>4.328721356375118</v>
+        <v>10.48441442502</v>
       </c>
       <c r="S12">
-        <v>0.001470390119756081</v>
+        <v>0.0003840633301492041</v>
       </c>
       <c r="T12">
-        <v>0.001470390119756081</v>
+        <v>0.0003102412154408524</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,247 +1210,247 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.90297587478183</v>
+        <v>3.476950666666667</v>
       </c>
       <c r="H13">
-        <v>4.90297587478183</v>
+        <v>10.430852</v>
       </c>
       <c r="I13">
-        <v>0.2865375911314559</v>
+        <v>0.1413442508670433</v>
       </c>
       <c r="J13">
-        <v>0.2865375911314559</v>
+        <v>0.1710189567472641</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.156204902765566</v>
+        <v>182.713089</v>
       </c>
       <c r="N13">
-        <v>0.156204902765566</v>
+        <v>548.139267</v>
       </c>
       <c r="O13">
-        <v>0.0009079161818779087</v>
+        <v>0.9878703589865653</v>
       </c>
       <c r="P13">
-        <v>0.0009079161818779087</v>
+        <v>0.9892857631315353</v>
       </c>
       <c r="Q13">
-        <v>0.7658688697822117</v>
+        <v>635.284396607276</v>
       </c>
       <c r="R13">
-        <v>0.7658688697822117</v>
+        <v>5717.559569465484</v>
       </c>
       <c r="S13">
-        <v>0.0002601521157045648</v>
+        <v>0.1396297958447132</v>
       </c>
       <c r="T13">
-        <v>0.0002601521157045648</v>
+        <v>0.1691866191356762</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
         <v>23</v>
       </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>26</v>
-      </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>7.15418131997897</v>
+        <v>3.476950666666667</v>
       </c>
       <c r="H14">
-        <v>7.15418131997897</v>
+        <v>10.430852</v>
       </c>
       <c r="I14">
-        <v>0.4181015640905333</v>
+        <v>0.1413442508670433</v>
       </c>
       <c r="J14">
-        <v>0.4181015640905333</v>
+        <v>0.1710189567472641</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.50091655847057</v>
+        <v>0.1515973333333333</v>
       </c>
       <c r="N14">
-        <v>0.50091655847057</v>
+        <v>0.454792</v>
       </c>
       <c r="O14">
-        <v>0.002911497918145221</v>
+        <v>0.000819637569049068</v>
       </c>
       <c r="P14">
-        <v>0.002911497918145221</v>
+        <v>0.0008208119320634572</v>
       </c>
       <c r="Q14">
-        <v>3.583647885478306</v>
+        <v>0.5270964491982222</v>
       </c>
       <c r="R14">
-        <v>3.583647885478306</v>
+        <v>4.743868042784</v>
       </c>
       <c r="S14">
-        <v>0.001217301833422849</v>
+        <v>0.000115851058179725</v>
       </c>
       <c r="T14">
-        <v>0.001217301833422849</v>
+        <v>0.0001403744003071987</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
         <v>24</v>
       </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>20</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>7.15418131997897</v>
+        <v>3.476950666666667</v>
       </c>
       <c r="H15">
-        <v>7.15418131997897</v>
+        <v>10.430852</v>
       </c>
       <c r="I15">
-        <v>0.4181015640905333</v>
+        <v>0.1413442508670433</v>
       </c>
       <c r="J15">
-        <v>0.4181015640905333</v>
+        <v>0.1710189567472641</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>170.507715292399</v>
+        <v>1.297988666666667</v>
       </c>
       <c r="N15">
-        <v>170.507715292399</v>
+        <v>3.893966</v>
       </c>
       <c r="O15">
-        <v>0.9910490074779278</v>
+        <v>0.007017803361096332</v>
       </c>
       <c r="P15">
-        <v>0.9910490074779278</v>
+        <v>0.007027858352498311</v>
       </c>
       <c r="Q15">
-        <v>1219.843111657173</v>
+        <v>4.513042559892445</v>
       </c>
       <c r="R15">
-        <v>1219.843111657173</v>
+        <v>40.617383039032</v>
       </c>
       <c r="S15">
-        <v>0.4143591401168923</v>
+        <v>0.0009919261588063797</v>
       </c>
       <c r="T15">
-        <v>0.4143591401168923</v>
+        <v>0.001201897003611808</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
         <v>25</v>
       </c>
-      <c r="D16" t="s">
-        <v>27</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>7.15418131997897</v>
+        <v>3.476950666666667</v>
       </c>
       <c r="H16">
-        <v>7.15418131997897</v>
+        <v>10.430852</v>
       </c>
       <c r="I16">
-        <v>0.4181015640905333</v>
+        <v>0.1413442508670433</v>
       </c>
       <c r="J16">
-        <v>0.4181015640905333</v>
+        <v>0.1710189567472641</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.882876332033295</v>
+        <v>0.291303</v>
       </c>
       <c r="N16">
-        <v>0.882876332033295</v>
+        <v>0.582606</v>
       </c>
       <c r="O16">
-        <v>0.005131578422049008</v>
+        <v>0.001574980756763756</v>
       </c>
       <c r="P16">
-        <v>0.005131578422049008</v>
+        <v>0.001051491575251461</v>
       </c>
       <c r="Q16">
-        <v>6.31625736248415</v>
+        <v>1.012846160052</v>
       </c>
       <c r="R16">
-        <v>6.31625736248415</v>
+        <v>6.077076960312</v>
       </c>
       <c r="S16">
-        <v>0.002145520964511921</v>
+        <v>0.000222614475194782</v>
       </c>
       <c r="T16">
-        <v>0.002145520964511921</v>
+        <v>0.0001798249922280422</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,929 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>5.359705333333333</v>
+      </c>
+      <c r="H17">
+        <v>16.079116</v>
+      </c>
+      <c r="I17">
+        <v>0.2178815887354446</v>
+      </c>
+      <c r="J17">
+        <v>0.2636250273456322</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.5025675000000001</v>
+      </c>
+      <c r="N17">
+        <v>1.005135</v>
+      </c>
+      <c r="O17">
+        <v>0.002717219326525538</v>
+      </c>
+      <c r="P17">
+        <v>0.001814075008651434</v>
+      </c>
+      <c r="Q17">
+        <v>2.69361371011</v>
+      </c>
+      <c r="R17">
+        <v>16.16168226066</v>
+      </c>
+      <c r="S17">
+        <v>0.0005920320638060391</v>
+      </c>
+      <c r="T17">
+        <v>0.0004782355737627623</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>5.359705333333333</v>
+      </c>
+      <c r="H18">
+        <v>16.079116</v>
+      </c>
+      <c r="I18">
+        <v>0.2178815887354446</v>
+      </c>
+      <c r="J18">
+        <v>0.2636250273456322</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>182.713089</v>
+      </c>
+      <c r="N18">
+        <v>548.139267</v>
+      </c>
+      <c r="O18">
+        <v>0.9878703589865653</v>
+      </c>
+      <c r="P18">
+        <v>0.9892857631315353</v>
+      </c>
+      <c r="Q18">
+        <v>979.288317583108</v>
+      </c>
+      <c r="R18">
+        <v>8813.594858247972</v>
+      </c>
+      <c r="S18">
+        <v>0.2152387632806468</v>
+      </c>
+      <c r="T18">
+        <v>0.2608004863581956</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>5.359705333333333</v>
+      </c>
+      <c r="H19">
+        <v>16.079116</v>
+      </c>
+      <c r="I19">
+        <v>0.2178815887354446</v>
+      </c>
+      <c r="J19">
+        <v>0.2636250273456322</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.1515973333333333</v>
+      </c>
+      <c r="N19">
+        <v>0.454792</v>
+      </c>
+      <c r="O19">
+        <v>0.000819637569049068</v>
+      </c>
+      <c r="P19">
+        <v>0.0008208119320634572</v>
+      </c>
+      <c r="Q19">
+        <v>0.8125170359857777</v>
+      </c>
+      <c r="R19">
+        <v>7.312653323872</v>
+      </c>
+      <c r="S19">
+        <v>0.0001785839357316686</v>
+      </c>
+      <c r="T19">
+        <v>0.0002163865680358501</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
         <v>24</v>
       </c>
-      <c r="C17" t="s">
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>5.359705333333333</v>
+      </c>
+      <c r="H20">
+        <v>16.079116</v>
+      </c>
+      <c r="I20">
+        <v>0.2178815887354446</v>
+      </c>
+      <c r="J20">
+        <v>0.2636250273456322</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1.297988666666667</v>
+      </c>
+      <c r="N20">
+        <v>3.893966</v>
+      </c>
+      <c r="O20">
+        <v>0.007017803361096332</v>
+      </c>
+      <c r="P20">
+        <v>0.007027858352498311</v>
+      </c>
+      <c r="Q20">
+        <v>6.956836779339556</v>
+      </c>
+      <c r="R20">
+        <v>62.611531014056</v>
+      </c>
+      <c r="S20">
+        <v>0.001529050145748612</v>
+      </c>
+      <c r="T20">
+        <v>0.001852719350358597</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
         <v>25</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>5.359705333333333</v>
+      </c>
+      <c r="H21">
+        <v>16.079116</v>
+      </c>
+      <c r="I21">
+        <v>0.2178815887354446</v>
+      </c>
+      <c r="J21">
+        <v>0.2636250273456322</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.291303</v>
+      </c>
+      <c r="N21">
+        <v>0.582606</v>
+      </c>
+      <c r="O21">
+        <v>0.001574980756763756</v>
+      </c>
+      <c r="P21">
+        <v>0.001051491575251461</v>
+      </c>
+      <c r="Q21">
+        <v>1.561298242716</v>
+      </c>
+      <c r="R21">
+        <v>9.367789456295998</v>
+      </c>
+      <c r="S21">
+        <v>0.0003431593095114399</v>
+      </c>
+      <c r="T21">
+        <v>0.0002771994952793682</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.06026333333333334</v>
+      </c>
+      <c r="H22">
+        <v>0.18079</v>
+      </c>
+      <c r="I22">
+        <v>0.002449812068491889</v>
+      </c>
+      <c r="J22">
+        <v>0.002964141106626561</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.5025675000000001</v>
+      </c>
+      <c r="N22">
+        <v>1.005135</v>
+      </c>
+      <c r="O22">
+        <v>0.002717219326525538</v>
+      </c>
+      <c r="P22">
+        <v>0.001814075008651434</v>
+      </c>
+      <c r="Q22">
+        <v>0.030286392775</v>
+      </c>
+      <c r="R22">
+        <v>0.18171835665</v>
+      </c>
+      <c r="S22">
+        <v>6.656676698861667E-06</v>
+      </c>
+      <c r="T22">
+        <v>5.377174303647651E-06</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.06026333333333334</v>
+      </c>
+      <c r="H23">
+        <v>0.18079</v>
+      </c>
+      <c r="I23">
+        <v>0.002449812068491889</v>
+      </c>
+      <c r="J23">
+        <v>0.002964141106626561</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>182.713089</v>
+      </c>
+      <c r="N23">
+        <v>548.139267</v>
+      </c>
+      <c r="O23">
+        <v>0.9878703589865653</v>
+      </c>
+      <c r="P23">
+        <v>0.9892857631315353</v>
+      </c>
+      <c r="Q23">
+        <v>11.01089978677</v>
+      </c>
+      <c r="R23">
+        <v>99.09809808093</v>
+      </c>
+      <c r="S23">
+        <v>0.002420096727550702</v>
+      </c>
+      <c r="T23">
+        <v>0.002932382596698611</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>23</v>
       </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>7.15418131997897</v>
-      </c>
-      <c r="H17">
-        <v>7.15418131997897</v>
-      </c>
-      <c r="I17">
-        <v>0.4181015640905333</v>
-      </c>
-      <c r="J17">
-        <v>0.4181015640905333</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>0.156204902765566</v>
-      </c>
-      <c r="N17">
-        <v>0.156204902765566</v>
-      </c>
-      <c r="O17">
-        <v>0.0009079161818779087</v>
-      </c>
-      <c r="P17">
-        <v>0.0009079161818779087</v>
-      </c>
-      <c r="Q17">
-        <v>1.117518197454544</v>
-      </c>
-      <c r="R17">
-        <v>1.117518197454544</v>
-      </c>
-      <c r="S17">
-        <v>0.0003796011757062588</v>
-      </c>
-      <c r="T17">
-        <v>0.0003796011757062588</v>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.06026333333333334</v>
+      </c>
+      <c r="H24">
+        <v>0.18079</v>
+      </c>
+      <c r="I24">
+        <v>0.002449812068491889</v>
+      </c>
+      <c r="J24">
+        <v>0.002964141106626561</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.1515973333333333</v>
+      </c>
+      <c r="N24">
+        <v>0.454792</v>
+      </c>
+      <c r="O24">
+        <v>0.000819637569049068</v>
+      </c>
+      <c r="P24">
+        <v>0.0008208119320634572</v>
+      </c>
+      <c r="Q24">
+        <v>0.009135760631111111</v>
+      </c>
+      <c r="R24">
+        <v>0.08222184568</v>
+      </c>
+      <c r="S24">
+        <v>2.007958008445761E-06</v>
+      </c>
+      <c r="T24">
+        <v>2.433002388638862E-06</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.06026333333333334</v>
+      </c>
+      <c r="H25">
+        <v>0.18079</v>
+      </c>
+      <c r="I25">
+        <v>0.002449812068491889</v>
+      </c>
+      <c r="J25">
+        <v>0.002964141106626561</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1.297988666666667</v>
+      </c>
+      <c r="N25">
+        <v>3.893966</v>
+      </c>
+      <c r="O25">
+        <v>0.007017803361096332</v>
+      </c>
+      <c r="P25">
+        <v>0.007027858352498311</v>
+      </c>
+      <c r="Q25">
+        <v>0.07822112368222223</v>
+      </c>
+      <c r="R25">
+        <v>0.70399011314</v>
+      </c>
+      <c r="S25">
+        <v>1.719229936831674E-05</v>
+      </c>
+      <c r="T25">
+        <v>2.083156383418907E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.06026333333333334</v>
+      </c>
+      <c r="H26">
+        <v>0.18079</v>
+      </c>
+      <c r="I26">
+        <v>0.002449812068491889</v>
+      </c>
+      <c r="J26">
+        <v>0.002964141106626561</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.291303</v>
+      </c>
+      <c r="N26">
+        <v>0.582606</v>
+      </c>
+      <c r="O26">
+        <v>0.001574980756763756</v>
+      </c>
+      <c r="P26">
+        <v>0.001051491575251461</v>
+      </c>
+      <c r="Q26">
+        <v>0.01755488979</v>
+      </c>
+      <c r="R26">
+        <v>0.10532933874</v>
+      </c>
+      <c r="S26">
+        <v>3.858406865562337E-06</v>
+      </c>
+      <c r="T26">
+        <v>3.116769401474372E-06</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>12.638195</v>
+      </c>
+      <c r="H27">
+        <v>25.27639</v>
+      </c>
+      <c r="I27">
+        <v>0.513765185601314</v>
+      </c>
+      <c r="J27">
+        <v>0.4144188651259724</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>0.5025675000000001</v>
+      </c>
+      <c r="N27">
+        <v>1.005135</v>
+      </c>
+      <c r="O27">
+        <v>0.002717219326525538</v>
+      </c>
+      <c r="P27">
+        <v>0.001814075008651434</v>
+      </c>
+      <c r="Q27">
+        <v>6.3515460656625</v>
+      </c>
+      <c r="R27">
+        <v>25.40618426265</v>
+      </c>
+      <c r="S27">
+        <v>0.001396012691611871</v>
+      </c>
+      <c r="T27">
+        <v>0.0007517869063387158</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>12.638195</v>
+      </c>
+      <c r="H28">
+        <v>25.27639</v>
+      </c>
+      <c r="I28">
+        <v>0.513765185601314</v>
+      </c>
+      <c r="J28">
+        <v>0.4144188651259724</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>182.713089</v>
+      </c>
+      <c r="N28">
+        <v>548.139267</v>
+      </c>
+      <c r="O28">
+        <v>0.9878703589865653</v>
+      </c>
+      <c r="P28">
+        <v>0.9892857631315353</v>
+      </c>
+      <c r="Q28">
+        <v>2309.163647834355</v>
+      </c>
+      <c r="R28">
+        <v>13854.98188700613</v>
+      </c>
+      <c r="S28">
+        <v>0.5075333983347694</v>
+      </c>
+      <c r="T28">
+        <v>0.4099786832422523</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>12.638195</v>
+      </c>
+      <c r="H29">
+        <v>25.27639</v>
+      </c>
+      <c r="I29">
+        <v>0.513765185601314</v>
+      </c>
+      <c r="J29">
+        <v>0.4144188651259724</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M29">
+        <v>0.1515973333333333</v>
+      </c>
+      <c r="N29">
+        <v>0.454792</v>
+      </c>
+      <c r="O29">
+        <v>0.000819637569049068</v>
+      </c>
+      <c r="P29">
+        <v>0.0008208119320634572</v>
+      </c>
+      <c r="Q29">
+        <v>1.915916660146667</v>
+      </c>
+      <c r="R29">
+        <v>11.49549996088</v>
+      </c>
+      <c r="S29">
+        <v>0.0004211012477883043</v>
+      </c>
+      <c r="T29">
+        <v>0.0003401599493675947</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>12.638195</v>
+      </c>
+      <c r="H30">
+        <v>25.27639</v>
+      </c>
+      <c r="I30">
+        <v>0.513765185601314</v>
+      </c>
+      <c r="J30">
+        <v>0.4144188651259724</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>1.297988666666667</v>
+      </c>
+      <c r="N30">
+        <v>3.893966</v>
+      </c>
+      <c r="O30">
+        <v>0.007017803361096332</v>
+      </c>
+      <c r="P30">
+        <v>0.007027858352498311</v>
+      </c>
+      <c r="Q30">
+        <v>16.40423387712333</v>
+      </c>
+      <c r="R30">
+        <v>98.42540326274001</v>
+      </c>
+      <c r="S30">
+        <v>0.003605503046327182</v>
+      </c>
+      <c r="T30">
+        <v>0.002912477082708436</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>12.638195</v>
+      </c>
+      <c r="H31">
+        <v>25.27639</v>
+      </c>
+      <c r="I31">
+        <v>0.513765185601314</v>
+      </c>
+      <c r="J31">
+        <v>0.4144188651259724</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>0.291303</v>
+      </c>
+      <c r="N31">
+        <v>0.582606</v>
+      </c>
+      <c r="O31">
+        <v>0.001574980756763756</v>
+      </c>
+      <c r="P31">
+        <v>0.001051491575251461</v>
+      </c>
+      <c r="Q31">
+        <v>3.681544118085</v>
+      </c>
+      <c r="R31">
+        <v>14.72617647234</v>
+      </c>
+      <c r="S31">
+        <v>0.0008091702808172289</v>
+      </c>
+      <c r="T31">
+        <v>0.0004357579453052314</v>
       </c>
     </row>
   </sheetData>
